--- a/volatility/src/xls/04_GBPJPY.xlsx
+++ b/volatility/src/xls/04_GBPJPY.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -569,19 +569,19 @@
         <v>37864</v>
       </c>
       <c r="E6" s="5">
-        <v>105.3</v>
+        <v>135.6</v>
       </c>
       <c r="G6" s="5">
         <f>E6+B9</f>
-        <v>106.2</v>
+        <v>136.5</v>
       </c>
       <c r="H6" s="5">
         <f>G6+B8</f>
-        <v>108.8</v>
+        <v>139.1</v>
       </c>
       <c r="I6" s="5">
         <f>G6-B8</f>
-        <v>103.60000000000001</v>
+        <v>133.9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -611,15 +611,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>E6-B9</f>
-        <v>104.39999999999999</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="H10" s="5">
         <f>G10-B8</f>
-        <v>101.8</v>
+        <v>132.1</v>
       </c>
       <c r="I10" s="5">
         <f>G10+B8</f>
-        <v>106.99999999999999</v>
+        <v>137.29999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -628,12 +628,12 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5456,7 +5456,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>
